--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Angina.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Angina.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.37187576269566</v>
+        <v>21.38850176573779</v>
       </c>
       <c r="B2" t="n">
-        <v>17.57843490980017</v>
+        <v>17.37868957931509</v>
       </c>
       <c r="C2" t="n">
-        <v>25.32415432628318</v>
+        <v>25.36871322633619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.62897381053865</v>
+        <v>20.64072820321903</v>
       </c>
       <c r="B3" t="n">
-        <v>15.85095598821289</v>
+        <v>16.0178969511467</v>
       </c>
       <c r="C3" t="n">
-        <v>25.88002766518008</v>
+        <v>26.10571993187365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.56557238825455</v>
+        <v>20.66920240661135</v>
       </c>
       <c r="B4" t="n">
-        <v>16.59600388412014</v>
+        <v>16.35110799264588</v>
       </c>
       <c r="C4" t="n">
-        <v>25.27282537638184</v>
+        <v>25.14206235033802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.8622602108492</v>
+        <v>24.87244596593988</v>
       </c>
       <c r="B5" t="n">
-        <v>19.44795988259617</v>
+        <v>19.64858264946364</v>
       </c>
       <c r="C5" t="n">
-        <v>30.68830020433179</v>
+        <v>30.84565315845443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.04546745986228</v>
+        <v>26.06727152267131</v>
       </c>
       <c r="B6" t="n">
-        <v>21.40057381165433</v>
+        <v>21.33245820557327</v>
       </c>
       <c r="C6" t="n">
-        <v>30.06561183670404</v>
+        <v>29.92419330030981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.31312748915158</v>
+        <v>19.22750204057473</v>
       </c>
       <c r="B7" t="n">
-        <v>16.40552979456096</v>
+        <v>16.30796156276427</v>
       </c>
       <c r="C7" t="n">
-        <v>22.35684388108528</v>
+        <v>22.39451297710363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.8815626067754</v>
+        <v>9.890052560229611</v>
       </c>
       <c r="B8" t="n">
-        <v>4.702422907730718</v>
+        <v>4.746148511182452</v>
       </c>
       <c r="C8" t="n">
-        <v>15.97078680605907</v>
+        <v>16.03020413814457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.48317852255803</v>
+        <v>24.44687836609264</v>
       </c>
       <c r="B9" t="n">
-        <v>19.99430733056791</v>
+        <v>20.24378479393847</v>
       </c>
       <c r="C9" t="n">
-        <v>28.58408867952912</v>
+        <v>28.62347068908447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.21449595645064</v>
+        <v>10.17638673681832</v>
       </c>
       <c r="B10" t="n">
-        <v>4.949591299190168</v>
+        <v>5.031857197501548</v>
       </c>
       <c r="C10" t="n">
-        <v>16.38585456644195</v>
+        <v>16.35607351172702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.01990470948116</v>
+        <v>17.91087570579169</v>
       </c>
       <c r="B11" t="n">
-        <v>12.85601706246213</v>
+        <v>13.20271457375548</v>
       </c>
       <c r="C11" t="n">
-        <v>22.27227729666801</v>
+        <v>22.40668834637858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.8666599157444</v>
+        <v>26.89164199088832</v>
       </c>
       <c r="B12" t="n">
-        <v>22.02322915889694</v>
+        <v>21.89782605212991</v>
       </c>
       <c r="C12" t="n">
-        <v>30.83694064454441</v>
+        <v>31.10846086657531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.73340175202121</v>
+        <v>12.78397068966698</v>
       </c>
       <c r="B13" t="n">
-        <v>7.008190842126099</v>
+        <v>6.932317368398227</v>
       </c>
       <c r="C13" t="n">
-        <v>20.84781621237281</v>
+        <v>20.92502569671525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.82926872942802</v>
+        <v>14.85808382223082</v>
       </c>
       <c r="B14" t="n">
-        <v>9.549722393963837</v>
+        <v>9.632307518776107</v>
       </c>
       <c r="C14" t="n">
-        <v>20.19434746029276</v>
+        <v>20.26029453142244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28.80526186118596</v>
+        <v>28.77413975488276</v>
       </c>
       <c r="B15" t="n">
-        <v>23.13384339010181</v>
+        <v>22.82338897267322</v>
       </c>
       <c r="C15" t="n">
-        <v>34.8132197955771</v>
+        <v>34.74708717883421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.06298052286458</v>
+        <v>26.1384685591192</v>
       </c>
       <c r="B16" t="n">
-        <v>21.25288830515807</v>
+        <v>21.25317350696336</v>
       </c>
       <c r="C16" t="n">
-        <v>30.07099520814478</v>
+        <v>29.91458930443408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26.89587650875957</v>
+        <v>26.99126459120875</v>
       </c>
       <c r="B17" t="n">
-        <v>22.67653958557441</v>
+        <v>22.4963782731673</v>
       </c>
       <c r="C17" t="n">
-        <v>31.159450048085</v>
+        <v>31.2811190237013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.3415513538495</v>
+        <v>20.60665854452809</v>
       </c>
       <c r="B18" t="n">
-        <v>16.45809851950269</v>
+        <v>16.33698341913452</v>
       </c>
       <c r="C18" t="n">
-        <v>25.13900033158208</v>
+        <v>25.03073071792736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.70629885330823</v>
+        <v>18.68931229132765</v>
       </c>
       <c r="B19" t="n">
-        <v>13.13140096854032</v>
+        <v>13.23803387561573</v>
       </c>
       <c r="C19" t="n">
-        <v>24.27548573954926</v>
+        <v>24.22573925620963</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.62201205104832</v>
+        <v>29.56814665555689</v>
       </c>
       <c r="B20" t="n">
-        <v>24.74226553643621</v>
+        <v>24.37545715621447</v>
       </c>
       <c r="C20" t="n">
-        <v>34.34421139247418</v>
+        <v>34.32573190242808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28.83649672767115</v>
+        <v>28.89050693472969</v>
       </c>
       <c r="B21" t="n">
-        <v>23.28392175982032</v>
+        <v>23.93114122656443</v>
       </c>
       <c r="C21" t="n">
-        <v>34.02356709961552</v>
+        <v>34.07804077971073</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.30558345858491</v>
+        <v>10.74804460589509</v>
       </c>
       <c r="B22" t="n">
-        <v>4.80295965074998</v>
+        <v>5.250898458035385</v>
       </c>
       <c r="C22" t="n">
-        <v>17.70613737773343</v>
+        <v>17.55835583889407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30.92870381714185</v>
+        <v>30.99345122581428</v>
       </c>
       <c r="B23" t="n">
-        <v>24.29712520285797</v>
+        <v>24.15346239898594</v>
       </c>
       <c r="C23" t="n">
-        <v>37.18944171750794</v>
+        <v>37.29133054817315</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.05857515692601</v>
+        <v>26.1384685591192</v>
       </c>
       <c r="B24" t="n">
-        <v>21.25829974616589</v>
+        <v>21.25317350696336</v>
       </c>
       <c r="C24" t="n">
-        <v>30.07099520814478</v>
+        <v>29.91458930443408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.65168393004853</v>
+        <v>22.55094707931317</v>
       </c>
       <c r="B25" t="n">
-        <v>18.84609756667364</v>
+        <v>19.33264381390847</v>
       </c>
       <c r="C25" t="n">
-        <v>26.31798699139789</v>
+        <v>26.32194092216196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28.82988452325471</v>
+        <v>28.85021377908337</v>
       </c>
       <c r="B26" t="n">
-        <v>23.44213150225234</v>
+        <v>23.61260539834298</v>
       </c>
       <c r="C26" t="n">
-        <v>33.97588524203064</v>
+        <v>34.034651468668</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.95905815553827</v>
+        <v>12.86914838081217</v>
       </c>
       <c r="B27" t="n">
-        <v>7.038495852067354</v>
+        <v>6.955230536556061</v>
       </c>
       <c r="C27" t="n">
-        <v>21.11078723397004</v>
+        <v>21.02652352109294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.2427089337753</v>
+        <v>20.22633749882602</v>
       </c>
       <c r="B28" t="n">
-        <v>16.86609312149136</v>
+        <v>16.68710789715158</v>
       </c>
       <c r="C28" t="n">
-        <v>23.61545740796511</v>
+        <v>23.49071654528738</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32.61033434506181</v>
+        <v>32.66265051256413</v>
       </c>
       <c r="B29" t="n">
-        <v>26.28914110760315</v>
+        <v>26.27604153603249</v>
       </c>
       <c r="C29" t="n">
-        <v>39.52211983781923</v>
+        <v>39.53480947860753</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.53194481520048</v>
+        <v>25.50739117962885</v>
       </c>
       <c r="B30" t="n">
-        <v>21.77089411404911</v>
+        <v>21.58851508969947</v>
       </c>
       <c r="C30" t="n">
-        <v>30.33557060644192</v>
+        <v>30.31352674972676</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.29465792347669</v>
+        <v>14.33504672804971</v>
       </c>
       <c r="B31" t="n">
-        <v>9.328725128172112</v>
+        <v>9.171508245504533</v>
       </c>
       <c r="C31" t="n">
-        <v>19.92696156871914</v>
+        <v>19.57510881383944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.92422804556034</v>
+        <v>11.98886714649602</v>
       </c>
       <c r="B32" t="n">
-        <v>7.200769390078094</v>
+        <v>7.025345031354191</v>
       </c>
       <c r="C32" t="n">
-        <v>17.33758999319539</v>
+        <v>17.50896397477052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14.87135599451999</v>
+        <v>14.85980855250412</v>
       </c>
       <c r="B33" t="n">
-        <v>9.680440491157505</v>
+        <v>9.700676961623293</v>
       </c>
       <c r="C33" t="n">
-        <v>20.39042200267109</v>
+        <v>20.68343499651575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.27598553534948</v>
+        <v>23.28659907095988</v>
       </c>
       <c r="B34" t="n">
-        <v>18.23270873802067</v>
+        <v>18.38033576939813</v>
       </c>
       <c r="C34" t="n">
-        <v>28.47146551972417</v>
+        <v>28.45723910516685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27.8750236565542</v>
+        <v>27.91451393216179</v>
       </c>
       <c r="B35" t="n">
-        <v>23.21455830478551</v>
+        <v>23.1775276271396</v>
       </c>
       <c r="C35" t="n">
-        <v>32.58924278015387</v>
+        <v>32.51117257032084</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.24283850550012</v>
+        <v>19.14187521535924</v>
       </c>
       <c r="B36" t="n">
-        <v>16.30579139735939</v>
+        <v>16.24790871493871</v>
       </c>
       <c r="C36" t="n">
-        <v>22.55689440266203</v>
+        <v>22.56157526471678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30.85983980725422</v>
+        <v>30.84854018950216</v>
       </c>
       <c r="B37" t="n">
-        <v>24.80589936826084</v>
+        <v>24.89954793848969</v>
       </c>
       <c r="C37" t="n">
-        <v>36.23544527599682</v>
+        <v>36.30000920081681</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.1212170010348</v>
+        <v>15.06993194250352</v>
       </c>
       <c r="B38" t="n">
-        <v>9.976955914994326</v>
+        <v>10.21714930178505</v>
       </c>
       <c r="C38" t="n">
-        <v>21.85386770257935</v>
+        <v>21.91996661852801</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.3474514517444</v>
+        <v>27.41040841398803</v>
       </c>
       <c r="B39" t="n">
-        <v>22.75547494756861</v>
+        <v>22.46689449010432</v>
       </c>
       <c r="C39" t="n">
-        <v>32.00141892448308</v>
+        <v>31.9405343393089</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24.91370998643991</v>
+        <v>24.96961133727889</v>
       </c>
       <c r="B40" t="n">
-        <v>20.17418155556179</v>
+        <v>20.23237721451717</v>
       </c>
       <c r="C40" t="n">
-        <v>30.26209818202064</v>
+        <v>30.32219849277783</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.12283044407352</v>
+        <v>18.12944049482694</v>
       </c>
       <c r="B41" t="n">
-        <v>15.35517697780904</v>
+        <v>15.35839246348332</v>
       </c>
       <c r="C41" t="n">
-        <v>21.2997770213669</v>
+        <v>21.33164893577558</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18.17227084197125</v>
+        <v>18.24211456898124</v>
       </c>
       <c r="B42" t="n">
-        <v>12.82844037151205</v>
+        <v>12.85226734548205</v>
       </c>
       <c r="C42" t="n">
-        <v>23.43400386512234</v>
+        <v>23.36691001988499</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.5255675003644</v>
+        <v>25.504640455482</v>
       </c>
       <c r="B43" t="n">
-        <v>21.75917209451062</v>
+        <v>21.58804911889032</v>
       </c>
       <c r="C43" t="n">
-        <v>30.33557060644192</v>
+        <v>30.31297569725686</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15.80847808616443</v>
+        <v>15.92201849085944</v>
       </c>
       <c r="B44" t="n">
-        <v>12.66927834422494</v>
+        <v>12.72391477802549</v>
       </c>
       <c r="C44" t="n">
-        <v>20.21920969886869</v>
+        <v>19.80694731927623</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18.90311493737383</v>
+        <v>18.88210395946783</v>
       </c>
       <c r="B45" t="n">
-        <v>13.86383089855392</v>
+        <v>13.58726727389485</v>
       </c>
       <c r="C45" t="n">
-        <v>24.60404864503019</v>
+        <v>24.57389336615204</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.0348210751767</v>
+        <v>13.92789657152717</v>
       </c>
       <c r="B46" t="n">
-        <v>9.792953928355665</v>
+        <v>9.895700210756637</v>
       </c>
       <c r="C46" t="n">
-        <v>17.99499020139016</v>
+        <v>18.00861677089005</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.8041143980327</v>
+        <v>10.72204594366823</v>
       </c>
       <c r="B47" t="n">
-        <v>4.960453251513119</v>
+        <v>4.778532245218436</v>
       </c>
       <c r="C47" t="n">
-        <v>17.66538214903937</v>
+        <v>17.54652109482504</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>26.89613680831894</v>
+        <v>27.01261573401585</v>
       </c>
       <c r="B48" t="n">
-        <v>22.45702558340079</v>
+        <v>22.21761752663176</v>
       </c>
       <c r="C48" t="n">
-        <v>30.8990160226178</v>
+        <v>31.38910385922219</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.80228507479371</v>
+        <v>23.02109739769512</v>
       </c>
       <c r="B49" t="n">
-        <v>18.83997308109335</v>
+        <v>18.75886044642751</v>
       </c>
       <c r="C49" t="n">
-        <v>27.70247286291486</v>
+        <v>27.72936049084308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30.88413905449957</v>
+        <v>30.88686727013537</v>
       </c>
       <c r="B50" t="n">
-        <v>24.80618349185419</v>
+        <v>25.08618065526323</v>
       </c>
       <c r="C50" t="n">
-        <v>36.32216492213798</v>
+        <v>36.34658014902942</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.6215438141091</v>
+        <v>20.66571531911547</v>
       </c>
       <c r="B51" t="n">
-        <v>15.85184816281195</v>
+        <v>15.93472118723952</v>
       </c>
       <c r="C51" t="n">
-        <v>26.08900426347298</v>
+        <v>26.37157351736791</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.54573174622642</v>
+        <v>13.70106460147985</v>
       </c>
       <c r="B52" t="n">
-        <v>9.366554926770107</v>
+        <v>9.439008503937766</v>
       </c>
       <c r="C52" t="n">
-        <v>18.09834361361829</v>
+        <v>18.07050135695347</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.4025423382121</v>
+        <v>27.45249729259701</v>
       </c>
       <c r="B53" t="n">
-        <v>23.31559419037099</v>
+        <v>23.03205505260803</v>
       </c>
       <c r="C53" t="n">
-        <v>32.44778209271936</v>
+        <v>32.17296359274947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.7982192894844</v>
+        <v>28.76415308248434</v>
       </c>
       <c r="B54" t="n">
-        <v>22.98312555085944</v>
+        <v>22.67004976782209</v>
       </c>
       <c r="C54" t="n">
-        <v>34.82121523372819</v>
+        <v>34.78157471428933</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28.83532267856761</v>
+        <v>28.89867935509088</v>
       </c>
       <c r="B55" t="n">
-        <v>23.22161383137446</v>
+        <v>23.56485911861971</v>
       </c>
       <c r="C55" t="n">
-        <v>33.97304958300782</v>
+        <v>33.86429737170005</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.07479019020188</v>
+        <v>14.108150434489</v>
       </c>
       <c r="B56" t="n">
-        <v>9.303649758538812</v>
+        <v>9.286287986688228</v>
       </c>
       <c r="C56" t="n">
-        <v>19.87236736899391</v>
+        <v>19.70038115335174</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.84656490024091</v>
+        <v>11.99581729003972</v>
       </c>
       <c r="B57" t="n">
-        <v>6.893701283502936</v>
+        <v>7.02175714922909</v>
       </c>
       <c r="C57" t="n">
-        <v>17.27537684802034</v>
+        <v>17.50716359696655</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30.85784433787073</v>
+        <v>30.80002138178461</v>
       </c>
       <c r="B58" t="n">
-        <v>24.83497959044839</v>
+        <v>25.10211111247232</v>
       </c>
       <c r="C58" t="n">
-        <v>36.20249909874612</v>
+        <v>36.32106147232457</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17.19034311490704</v>
+        <v>17.16051106517111</v>
       </c>
       <c r="B59" t="n">
-        <v>13.14118135958215</v>
+        <v>12.79420065015565</v>
       </c>
       <c r="C59" t="n">
-        <v>21.59790597100677</v>
+        <v>21.4318567490837</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30.96033189015023</v>
+        <v>31.10796151835798</v>
       </c>
       <c r="B60" t="n">
-        <v>24.32822731240996</v>
+        <v>24.22863171642936</v>
       </c>
       <c r="C60" t="n">
-        <v>37.349407695699</v>
+        <v>37.40628829274337</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14.98232012590772</v>
+        <v>14.93298572776943</v>
       </c>
       <c r="B61" t="n">
-        <v>9.588574128805721</v>
+        <v>9.479863190295289</v>
       </c>
       <c r="C61" t="n">
-        <v>21.43523767198516</v>
+        <v>21.40704380969573</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18.01742112523058</v>
+        <v>17.91087570579169</v>
       </c>
       <c r="B62" t="n">
-        <v>12.81314287193716</v>
+        <v>13.20271457375548</v>
       </c>
       <c r="C62" t="n">
-        <v>22.25220279278318</v>
+        <v>22.40668834637858</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.53492646604712</v>
+        <v>15.49707758940566</v>
       </c>
       <c r="B63" t="n">
-        <v>9.708719893692779</v>
+        <v>9.716216863684249</v>
       </c>
       <c r="C63" t="n">
-        <v>22.61914385952442</v>
+        <v>22.46081801506012</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.90973569781253</v>
+        <v>30.99710692234159</v>
       </c>
       <c r="B64" t="n">
-        <v>24.21589368321407</v>
+        <v>24.16986619413412</v>
       </c>
       <c r="C64" t="n">
-        <v>37.173252132424</v>
+        <v>37.17711598761869</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.31017920860333</v>
+        <v>11.39037787020175</v>
       </c>
       <c r="B65" t="n">
-        <v>7.036521595644972</v>
+        <v>6.97900815168977</v>
       </c>
       <c r="C65" t="n">
-        <v>16.73209835725578</v>
+        <v>16.74619532110268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.80982998641136</v>
+        <v>22.83286725183245</v>
       </c>
       <c r="B66" t="n">
-        <v>18.08801874927386</v>
+        <v>18.28256754449947</v>
       </c>
       <c r="C66" t="n">
-        <v>27.15714070353466</v>
+        <v>27.28715712519181</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.00856522982772</v>
+        <v>22.02165783175921</v>
       </c>
       <c r="B67" t="n">
-        <v>18.18820966243644</v>
+        <v>17.97020714102748</v>
       </c>
       <c r="C67" t="n">
-        <v>26.51264462252063</v>
+        <v>26.49260862285382</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26.87239111435436</v>
+        <v>26.99206492754991</v>
       </c>
       <c r="B68" t="n">
-        <v>21.31321816266057</v>
+        <v>21.60037042269972</v>
       </c>
       <c r="C68" t="n">
-        <v>32.24031910220457</v>
+        <v>32.1332789757786</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.98365026162574</v>
+        <v>10.90046246616398</v>
       </c>
       <c r="B69" t="n">
-        <v>5.346766396151825</v>
+        <v>5.372930118387</v>
       </c>
       <c r="C69" t="n">
-        <v>17.82780402452829</v>
+        <v>17.99892818980382</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.91424083230814</v>
+        <v>24.87181308967304</v>
       </c>
       <c r="B70" t="n">
-        <v>19.98577033908393</v>
+        <v>19.73722240448686</v>
       </c>
       <c r="C70" t="n">
-        <v>30.21081552239973</v>
+        <v>30.25865547394634</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.82371346676947</v>
+        <v>19.83276672779148</v>
       </c>
       <c r="B71" t="n">
-        <v>16.83636043154836</v>
+        <v>16.74676168060025</v>
       </c>
       <c r="C71" t="n">
-        <v>22.99942362722122</v>
+        <v>22.98989762669703</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22.95195115732817</v>
+        <v>22.87182159394246</v>
       </c>
       <c r="B72" t="n">
-        <v>19.57939513718696</v>
+        <v>19.12947158499937</v>
       </c>
       <c r="C72" t="n">
-        <v>26.75566726614797</v>
+        <v>26.73778111008175</v>
       </c>
     </row>
   </sheetData>
